--- a/作業日報.xlsx
+++ b/作業日報.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ikura\テクノオアシス\source\jyosetu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\jyosetu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBB60F6-056F-45E3-8B17-1FDCB61AA840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BE9E2E-58C4-4429-A263-B263DE98C8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="330" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1455" yWindow="735" windowWidth="14685" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日報" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -147,6 +136,19 @@
     <t>休</t>
     <rPh sb="0" eb="1">
       <t>キュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームパッドと画面の連携完成</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -156,7 +158,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -206,10 +208,10 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -490,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -548,7 +550,7 @@
         <v>45516</v>
       </c>
       <c r="B3" s="4" t="str">
-        <f t="shared" ref="B3:B18" si="0">TEXT(A3,"aaa")</f>
+        <f t="shared" ref="B3:B22" si="0">TEXT(A3,"aaa")</f>
         <v>月</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -786,7 +788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>45531</v>
       </c>
@@ -802,7 +804,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>45531</v>
       </c>
@@ -816,6 +818,69 @@
       </c>
       <c r="E18" s="6">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>45534</v>
+      </c>
+      <c r="B19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>金</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>45535</v>
+      </c>
+      <c r="B20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>土</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>日</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="6">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>45537</v>
+      </c>
+      <c r="B22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>月</v>
       </c>
     </row>
   </sheetData>

--- a/作業日報.xlsx
+++ b/作業日報.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\jyosetu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BE9E2E-58C4-4429-A263-B263DE98C8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB0280A-3453-4784-B2B2-CD2AFA2704A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="735" windowWidth="14685" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日報" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -149,6 +149,53 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラ側開発</t>
+    <rPh sb="3" eb="4">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイハツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始</t>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>momoの複数起動でつまった</t>
+    <rPh sb="5" eb="7">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Websocketサーバとの接続部分を追加</t>
+    <rPh sb="14" eb="16">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -157,8 +204,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="181" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -196,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -212,6 +260,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -492,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -504,54 +556,56 @@
     <col min="2" max="3" width="6.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="6"/>
-    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="19.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10">
+      <c r="E1" s="6">
+        <f>SUM(E3:E999)</f>
+        <v>82.833333333372138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="3" customFormat="1">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
         <v>45514</v>
       </c>
-      <c r="B2" s="4" t="str">
-        <f>TEXT(A2,"aaa")</f>
+      <c r="B3" s="4" t="str">
+        <f>TEXT(A3,"aaa")</f>
         <v>土</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>45516</v>
-      </c>
-      <c r="B3" s="4" t="str">
-        <f t="shared" ref="B3:B22" si="0">TEXT(A3,"aaa")</f>
-        <v>月</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>13</v>
@@ -560,16 +614,16 @@
         <v>2</v>
       </c>
       <c r="E3" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
-        <v>45517</v>
+        <v>45516</v>
       </c>
       <c r="B4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>火</v>
+        <f t="shared" ref="B4:B24" si="0">TEXT(A4,"aaa")</f>
+        <v>月</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>13</v>
@@ -578,16 +632,16 @@
         <v>2</v>
       </c>
       <c r="E4" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
-        <v>45519</v>
+        <v>45517</v>
       </c>
       <c r="B5" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>木</v>
+        <v>火</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>13</v>
@@ -596,10 +650,10 @@
         <v>2</v>
       </c>
       <c r="E5" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>45519</v>
       </c>
@@ -611,19 +665,19 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
-        <v>45521</v>
+        <v>45519</v>
       </c>
       <c r="B7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>土</v>
+        <v>木</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>13</v>
@@ -632,16 +686,16 @@
         <v>3</v>
       </c>
       <c r="E7" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
-        <v>45522</v>
+        <v>45521</v>
       </c>
       <c r="B8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>日</v>
+        <v>土</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>13</v>
@@ -653,48 +707,47 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
-        <v>45523</v>
+        <v>45522</v>
       </c>
       <c r="B9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>月</v>
-      </c>
-      <c r="C9" s="4"/>
+        <v>日</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="D9" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <v>45523</v>
+      </c>
+      <c r="B10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>月</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>45524</v>
-      </c>
-      <c r="B10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>火</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="E10" s="6">
         <v>3</v>
       </c>
-      <c r="F10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
-        <v>45525</v>
+        <v>45524</v>
       </c>
       <c r="B11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>水</v>
+        <v>火</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="2" t="s">
@@ -703,14 +756,17 @@
       <c r="E11" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="J11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
-        <v>45526</v>
+        <v>45525</v>
       </c>
       <c r="B12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>木</v>
+        <v>水</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="2" t="s">
@@ -720,33 +776,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
-        <v>45527</v>
+        <v>45526</v>
       </c>
       <c r="B13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>金</v>
+        <v>木</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
-        <v>45528</v>
+        <v>45527</v>
       </c>
       <c r="B14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>土</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>金</v>
+      </c>
+      <c r="C14" s="4"/>
       <c r="D14" s="2" t="s">
         <v>4</v>
       </c>
@@ -754,57 +808,59 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
-        <v>45529</v>
+        <v>45528</v>
       </c>
       <c r="B15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>日</v>
+        <v>土</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E15" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
-        <v>45530</v>
+        <v>45529</v>
       </c>
       <c r="B16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>月</v>
-      </c>
-      <c r="C16" s="4"/>
+        <v>日</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="D16" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E16" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
-        <v>45531</v>
+        <v>45530</v>
       </c>
       <c r="B17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>火</v>
+        <v>月</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E17" s="6">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>45531</v>
       </c>
@@ -814,52 +870,50 @@
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" s="6">
         <v>1.5</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
-        <v>45534</v>
-      </c>
-      <c r="B19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>金</v>
-      </c>
+        <v>45531</v>
+      </c>
+      <c r="B19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>火</v>
+      </c>
+      <c r="C19" s="4"/>
       <c r="D19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
-        <v>45535</v>
+        <v>45534</v>
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>土</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>13</v>
+        <v>金</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
-        <v>45536</v>
+        <v>45535</v>
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>日</v>
+        <v>土</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>13</v>
@@ -868,19 +922,109 @@
         <v>11</v>
       </c>
       <c r="E21" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>日</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="6">
         <v>4</v>
       </c>
-      <c r="F21" t="s">
+      <c r="J22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1">
+    <row r="23" spans="1:10">
+      <c r="A23" s="1">
         <v>45537</v>
       </c>
-      <c r="B22" s="3" t="str">
+      <c r="B23" s="3" t="str">
         <f t="shared" si="0"/>
         <v>月</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="6">
+        <f>(G23-F23)*24</f>
+        <v>2.8333333333139308</v>
+      </c>
+      <c r="F23" s="7">
+        <v>45537.895833333336</v>
+      </c>
+      <c r="G23" s="7">
+        <v>45538.013888888891</v>
+      </c>
+      <c r="J23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1">
+        <v>45538</v>
+      </c>
+      <c r="B24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>火</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="6">
+        <f>(G24-F24)*24</f>
+        <v>3</v>
+      </c>
+      <c r="F24" s="7">
+        <v>45538.916666666664</v>
+      </c>
+      <c r="G24" s="7">
+        <v>45539.041666666664</v>
+      </c>
+      <c r="J24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1">
+        <v>45539</v>
+      </c>
+      <c r="B25" s="3" t="str">
+        <f t="shared" ref="B25" si="1">TEXT(A25,"aaa")</f>
+        <v>水</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="6">
+        <f>((G25-F25)+(I25-H25))*24</f>
+        <v>5.0000000000582077</v>
+      </c>
+      <c r="F25" s="7">
+        <v>45539.3125</v>
+      </c>
+      <c r="G25" s="7">
+        <v>45539.395833333336</v>
+      </c>
+      <c r="H25" s="7">
+        <v>45539.895833333336</v>
+      </c>
+      <c r="I25" s="7">
+        <v>45540.020833333336</v>
+      </c>
+      <c r="J25" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/作業日報.xlsx
+++ b/作業日報.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\jyosetu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB0280A-3453-4784-B2B2-CD2AFA2704A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C630F84B-34B2-4B72-9A99-3A69ACB1F56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="21">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -196,6 +196,26 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラ側の動作は見せられるくらいになった
+ただ、カメラが3台くらいまでしか配信できず</t>
+    <rPh sb="3" eb="4">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ハイシン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -206,7 +226,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="181" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+    <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -260,8 +280,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -544,30 +564,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="3" width="6.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="6"/>
-    <col min="6" max="9" width="19.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="19.75" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="48.5" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="E1" s="6">
         <f>SUM(E3:E999)</f>
-        <v>82.833333333372138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="3" customFormat="1">
+        <v>101.83333333366318</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="3" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -595,11 +615,17 @@
       <c r="I2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>45514</v>
       </c>
@@ -617,7 +643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>45516</v>
       </c>
@@ -635,7 +661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>45517</v>
       </c>
@@ -653,7 +679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>45519</v>
       </c>
@@ -671,7 +697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>45519</v>
       </c>
@@ -689,7 +715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>45521</v>
       </c>
@@ -707,7 +733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>45522</v>
       </c>
@@ -725,7 +751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>45523</v>
       </c>
@@ -741,7 +767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>45524</v>
       </c>
@@ -756,11 +782,11 @@
       <c r="E11" s="6">
         <v>3</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>45525</v>
       </c>
@@ -776,7 +802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>45526</v>
       </c>
@@ -792,7 +818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>45527</v>
       </c>
@@ -808,7 +834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>45528</v>
       </c>
@@ -826,7 +852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>45529</v>
       </c>
@@ -844,7 +870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>45530</v>
       </c>
@@ -860,7 +886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>45531</v>
       </c>
@@ -876,7 +902,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>45531</v>
       </c>
@@ -892,7 +918,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>45534</v>
       </c>
@@ -907,7 +933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>45535</v>
       </c>
@@ -925,7 +951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>45536</v>
       </c>
@@ -942,11 +968,11 @@
       <c r="E22" s="6">
         <v>4</v>
       </c>
-      <c r="J22" t="s">
+      <c r="L22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>45537</v>
       </c>
@@ -967,11 +993,11 @@
       <c r="G23" s="7">
         <v>45538.013888888891</v>
       </c>
-      <c r="J23" t="s">
+      <c r="L23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>45538</v>
       </c>
@@ -992,17 +1018,20 @@
       <c r="G24" s="7">
         <v>45539.041666666664</v>
       </c>
-      <c r="J24" t="s">
+      <c r="L24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>45539</v>
       </c>
       <c r="B25" s="3" t="str">
-        <f t="shared" ref="B25" si="1">TEXT(A25,"aaa")</f>
+        <f t="shared" ref="B25:B26" si="1">TEXT(A25,"aaa")</f>
         <v>水</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>11</v>
@@ -1023,8 +1052,123 @@
       <c r="I25" s="7">
         <v>45540.020833333336</v>
       </c>
-      <c r="J25" t="s">
+      <c r="L25" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="1">
+        <v>45540</v>
+      </c>
+      <c r="B26" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>木</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="6">
+        <f>((G26-F26)+(I26-H26))*24</f>
+        <v>1.5</v>
+      </c>
+      <c r="F26" s="7">
+        <v>45540.875</v>
+      </c>
+      <c r="G26" s="7">
+        <v>45540.9375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B27" s="3" t="str">
+        <f t="shared" ref="B27:B29" si="2">TEXT(A27,"aaa")</f>
+        <v>金</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="6">
+        <f>((G27-F27)+(I27-H27))*24</f>
+        <v>3.5000000000582077</v>
+      </c>
+      <c r="F27" s="7">
+        <v>45540.875</v>
+      </c>
+      <c r="G27" s="7">
+        <v>45541.020833333336</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="1">
+        <v>45542</v>
+      </c>
+      <c r="B28" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>土</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="6">
+        <f>((G28-F28)+(I28-H28))*24</f>
+        <v>5.0000000000582077</v>
+      </c>
+      <c r="F28" s="7">
+        <v>45542.208333333336</v>
+      </c>
+      <c r="G28" s="7">
+        <v>45542.25</v>
+      </c>
+      <c r="H28" s="7">
+        <v>45542.854166666664</v>
+      </c>
+      <c r="I28" s="7">
+        <v>45543.020833333336</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="37.5">
+      <c r="A29" s="1">
+        <v>45543</v>
+      </c>
+      <c r="B29" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>日</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="6">
+        <f>((G29-F29)+(I29-H29)+(K29-J29))*24</f>
+        <v>9.000000000174623</v>
+      </c>
+      <c r="F29" s="7">
+        <v>45543.229166666664</v>
+      </c>
+      <c r="G29" s="7">
+        <v>45543.270833333336</v>
+      </c>
+      <c r="H29" s="7">
+        <v>45543.458333333336</v>
+      </c>
+      <c r="I29" s="7">
+        <v>45543.645833333336</v>
+      </c>
+      <c r="J29" s="7">
+        <v>45543.854166666664</v>
+      </c>
+      <c r="K29" s="7">
+        <v>45544</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/作業日報.xlsx
+++ b/作業日報.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\jyosetu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C630F84B-34B2-4B72-9A99-3A69ACB1F56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C2AAD7-27BE-4484-8D17-5321E291BA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="23">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -216,6 +216,32 @@
     </rPh>
     <rPh sb="37" eb="39">
       <t>ハイシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバプログラム開発</t>
+    <rPh sb="8" eb="10">
+      <t>カイハツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンドを受信してDBへ保存する部分を作成中</t>
+    <rPh sb="5" eb="7">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>チュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -564,10 +590,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D7" activePane="bottomRight" state="frozenSplit"/>
+      <selection activeCell="E4" sqref="E4"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1"/>
@@ -576,15 +606,15 @@
     <col min="2" max="3" width="6.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="6"/>
-    <col min="6" max="11" width="19.75" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="48.5" customWidth="1" collapsed="1"/>
+    <col min="6" max="11" width="19.75" style="7" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="48.5" customWidth="1"/>
     <col min="13" max="13" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="E1" s="6">
         <f>SUM(E3:E999)</f>
-        <v>101.83333333366318</v>
+        <v>104.83333333366318</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1">
@@ -1083,7 +1113,7 @@
         <v>45541</v>
       </c>
       <c r="B27" s="3" t="str">
-        <f t="shared" ref="B27:B29" si="2">TEXT(A27,"aaa")</f>
+        <f t="shared" ref="B27:B30" si="2">TEXT(A27,"aaa")</f>
         <v>金</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -1169,6 +1199,31 @@
       </c>
       <c r="L29" s="2" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="1">
+        <v>45546</v>
+      </c>
+      <c r="B30" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>水</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="6">
+        <f>((G30-F30)+(I30-H30)+(K30-J30))*24</f>
+        <v>3</v>
+      </c>
+      <c r="F30" s="7">
+        <v>45546.875</v>
+      </c>
+      <c r="G30" s="7">
+        <v>45547</v>
+      </c>
+      <c r="L30" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/作業日報.xlsx
+++ b/作業日報.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\jyosetu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ikura\テクノオアシス\source\jyosetu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C2AAD7-27BE-4484-8D17-5321E291BA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732FE5DB-AC3D-47F6-99D8-C45A402EEA23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日報" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="24">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -242,6 +253,20 @@
     </rPh>
     <rPh sb="21" eb="22">
       <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバプログラム開発
+コントローラー画面側開発</t>
+    <rPh sb="8" eb="10">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ガメンガワ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カイハツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -590,14 +615,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D7" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D19" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="E4" sqref="E4"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L30" sqref="L30"/>
+      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1"/>
@@ -614,7 +639,7 @@
     <row r="1" spans="1:12">
       <c r="E1" s="6">
         <f>SUM(E3:E999)</f>
-        <v>104.83333333366318</v>
+        <v>105.83333333377959</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1">
@@ -1113,7 +1138,7 @@
         <v>45541</v>
       </c>
       <c r="B27" s="3" t="str">
-        <f t="shared" ref="B27:B30" si="2">TEXT(A27,"aaa")</f>
+        <f t="shared" ref="B27:B31" si="2">TEXT(A27,"aaa")</f>
         <v>金</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -1224,6 +1249,28 @@
       </c>
       <c r="L30" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="37.5">
+      <c r="A31" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B31" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>金</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="6">
+        <f>((G31-F31)+(I31-H31)+(K31-J31))*24</f>
+        <v>1.0000000001164153</v>
+      </c>
+      <c r="F31" s="7">
+        <v>45548.729166666664</v>
+      </c>
+      <c r="G31" s="7">
+        <v>45548.770833333336</v>
       </c>
     </row>
   </sheetData>

--- a/作業日報.xlsx
+++ b/作業日報.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ikura\テクノオアシス\source\jyosetu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\jyosetu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732FE5DB-AC3D-47F6-99D8-C45A402EEA23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B8665C-7FEE-47CF-9D0D-67AA42294926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日報" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="25">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -267,6 +256,44 @@
     </rPh>
     <rPh sb="21" eb="23">
       <t>カイハツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンドを受信してDBへ保存する部分を作成中
+DBの値を読み込んでコマンドを送信する部分を作成</t>
+    <rPh sb="5" eb="7">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -622,7 +649,7 @@
       <selection activeCell="E4" sqref="E4"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomRight" activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1"/>
@@ -639,7 +666,7 @@
     <row r="1" spans="1:12">
       <c r="E1" s="6">
         <f>SUM(E3:E999)</f>
-        <v>105.83333333377959</v>
+        <v>109.3333333338378</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1">
@@ -1264,13 +1291,22 @@
       </c>
       <c r="E31" s="6">
         <f>((G31-F31)+(I31-H31)+(K31-J31))*24</f>
-        <v>1.0000000001164153</v>
+        <v>4.500000000174623</v>
       </c>
       <c r="F31" s="7">
         <v>45548.729166666664</v>
       </c>
       <c r="G31" s="7">
         <v>45548.770833333336</v>
+      </c>
+      <c r="H31" s="7">
+        <v>45548.875</v>
+      </c>
+      <c r="I31" s="7">
+        <v>45549.020833333336</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/作業日報.xlsx
+++ b/作業日報.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\jyosetu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B8665C-7FEE-47CF-9D0D-67AA42294926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57633823-42C1-492C-BD9B-49C9CB790C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4860" yWindow="225" windowWidth="16515" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日報" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="26">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -294,6 +294,19 @@
     </rPh>
     <rPh sb="45" eb="47">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebSocketを終了させる方法に悩む</t>
+    <rPh sb="10" eb="12">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ナヤ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -642,14 +655,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D19" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="J19" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="E4" sqref="E4"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L31" sqref="L31"/>
+      <selection pane="bottomRight" activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1"/>
@@ -666,7 +679,7 @@
     <row r="1" spans="1:12">
       <c r="E1" s="6">
         <f>SUM(E3:E999)</f>
-        <v>109.3333333338378</v>
+        <v>114.33333333389601</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1">
@@ -1165,7 +1178,7 @@
         <v>45541</v>
       </c>
       <c r="B27" s="3" t="str">
-        <f t="shared" ref="B27:B31" si="2">TEXT(A27,"aaa")</f>
+        <f t="shared" ref="B27:B32" si="2">TEXT(A27,"aaa")</f>
         <v>金</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -1307,6 +1320,46 @@
       </c>
       <c r="L31" s="2" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="37.5">
+      <c r="A32" s="1">
+        <v>45549</v>
+      </c>
+      <c r="B32" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>土</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="6">
+        <f>((G32-F32)+(I32-H32)+(K32-J32))*24</f>
+        <v>5.0000000000582077</v>
+      </c>
+      <c r="F32" s="7">
+        <v>45549.1875</v>
+      </c>
+      <c r="G32" s="7">
+        <v>45549.270833333336</v>
+      </c>
+      <c r="H32" s="7">
+        <v>45549.895833333336</v>
+      </c>
+      <c r="I32" s="7">
+        <v>45550.020833333336</v>
+      </c>
+      <c r="L32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1">
+        <v>45550</v>
+      </c>
+      <c r="B33" s="3" t="str">
+        <f t="shared" ref="B33" si="3">TEXT(A33,"aaa")</f>
+        <v>日</v>
       </c>
     </row>
   </sheetData>

--- a/作業日報.xlsx
+++ b/作業日報.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\jyosetu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57633823-42C1-492C-BD9B-49C9CB790C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF66DAFD-A18C-4999-8DFD-8F8530F11549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4860" yWindow="225" windowWidth="16515" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="27">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -307,6 +307,29 @@
     </rPh>
     <rPh sb="18" eb="19">
       <t>ナヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラッチアップの自動送信を停止する部分で不具合あり
+※修正中</t>
+    <rPh sb="8" eb="10">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>フグアイ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>シュウセイチュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -679,7 +702,7 @@
     <row r="1" spans="1:12">
       <c r="E1" s="6">
         <f>SUM(E3:E999)</f>
-        <v>114.33333333389601</v>
+        <v>120.33333333389601</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1">
@@ -1353,13 +1376,35 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:12" ht="37.5">
       <c r="A33" s="1">
         <v>45550</v>
       </c>
       <c r="B33" s="3" t="str">
         <f t="shared" ref="B33" si="3">TEXT(A33,"aaa")</f>
         <v>日</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="6">
+        <f>((G33-F33)+(I33-H33)+(K33-J33))*24</f>
+        <v>6</v>
+      </c>
+      <c r="F33" s="7">
+        <v>45551.479166666664</v>
+      </c>
+      <c r="G33" s="7">
+        <v>45551.645833333336</v>
+      </c>
+      <c r="H33" s="7">
+        <v>45551.895833333336</v>
+      </c>
+      <c r="I33" s="7">
+        <v>45551.979166666664</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/作業日報.xlsx
+++ b/作業日報.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\jyosetu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF66DAFD-A18C-4999-8DFD-8F8530F11549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670A025F-BA67-4FAB-8CA3-235033CAC5BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="225" windowWidth="16515" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日報" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="29">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -329,6 +329,46 @@
       <t>フグアイ</t>
     </rPh>
     <rPh sb="27" eb="30">
+      <t>シュウセイチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバプログラム開発</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラッチアップの自動送信を停止する部分で不具合あり
+スレッド内の値の保持で悩む
+※修正中</t>
+    <rPh sb="8" eb="10">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>フグアイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ナヤ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
       <t>シュウセイチュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -678,14 +718,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="J19" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D19" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="E4" sqref="E4"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L33" sqref="L33"/>
+      <selection pane="bottomRight" activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1"/>
@@ -702,7 +742,7 @@
     <row r="1" spans="1:12">
       <c r="E1" s="6">
         <f>SUM(E3:E999)</f>
-        <v>120.33333333389601</v>
+        <v>121.3333333338378</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1">
@@ -1381,7 +1421,7 @@
         <v>45550</v>
       </c>
       <c r="B33" s="3" t="str">
-        <f t="shared" ref="B33" si="3">TEXT(A33,"aaa")</f>
+        <f t="shared" ref="B33:B35" si="3">TEXT(A33,"aaa")</f>
         <v>日</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -1389,22 +1429,68 @@
       </c>
       <c r="E33" s="6">
         <f>((G33-F33)+(I33-H33)+(K33-J33))*24</f>
-        <v>6</v>
+        <v>0.99999999994179234</v>
       </c>
       <c r="F33" s="7">
-        <v>45551.479166666664</v>
+        <v>45550.1875</v>
       </c>
       <c r="G33" s="7">
-        <v>45551.645833333336</v>
-      </c>
-      <c r="H33" s="7">
-        <v>45551.895833333336</v>
-      </c>
-      <c r="I33" s="7">
-        <v>45551.979166666664</v>
+        <v>45550.229166666664</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="37.5">
+      <c r="A34" s="1">
+        <v>45551</v>
+      </c>
+      <c r="B34" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>月</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="6">
+        <f>((G34-F34)+(I34-H34)+(K34-J34))*24</f>
+        <v>6</v>
+      </c>
+      <c r="F34" s="7">
+        <v>45551.479166666664</v>
+      </c>
+      <c r="G34" s="7">
+        <v>45551.645833333336</v>
+      </c>
+      <c r="H34" s="7">
+        <v>45551.895833333336</v>
+      </c>
+      <c r="I34" s="7">
+        <v>45551.979166666664</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="56.25">
+      <c r="A35" s="1">
+        <v>45552</v>
+      </c>
+      <c r="B35" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>火</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="7">
+        <v>45552.895833333336</v>
+      </c>
+      <c r="G35" s="7">
+        <v>45553.020833333336</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/作業日報.xlsx
+++ b/作業日報.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\jyosetu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670A025F-BA67-4FAB-8CA3-235033CAC5BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F50F0E-B564-4951-9E2C-E86234826CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="30">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -370,6 +370,16 @@
     </rPh>
     <rPh sb="41" eb="44">
       <t>シュウセイチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RS232C関連開発</t>
+    <rPh sb="6" eb="8">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイハツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -718,14 +728,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D19" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D22" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="E4" sqref="E4"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L35" sqref="L35"/>
+      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1"/>
@@ -742,7 +752,7 @@
     <row r="1" spans="1:12">
       <c r="E1" s="6">
         <f>SUM(E3:E999)</f>
-        <v>121.3333333338378</v>
+        <v>131.33333333377959</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1">
@@ -1304,7 +1314,7 @@
         <v>15</v>
       </c>
       <c r="E29" s="6">
-        <f>((G29-F29)+(I29-H29)+(K29-J29))*24</f>
+        <f t="shared" ref="E29:E38" si="3">((G29-F29)+(I29-H29)+(K29-J29))*24</f>
         <v>9.000000000174623</v>
       </c>
       <c r="F29" s="7">
@@ -1341,7 +1351,7 @@
         <v>21</v>
       </c>
       <c r="E30" s="6">
-        <f>((G30-F30)+(I30-H30)+(K30-J30))*24</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="F30" s="7">
@@ -1366,7 +1376,7 @@
         <v>23</v>
       </c>
       <c r="E31" s="6">
-        <f>((G31-F31)+(I31-H31)+(K31-J31))*24</f>
+        <f t="shared" si="3"/>
         <v>4.500000000174623</v>
       </c>
       <c r="F31" s="7">
@@ -1397,7 +1407,7 @@
         <v>23</v>
       </c>
       <c r="E32" s="6">
-        <f>((G32-F32)+(I32-H32)+(K32-J32))*24</f>
+        <f t="shared" si="3"/>
         <v>5.0000000000582077</v>
       </c>
       <c r="F32" s="7">
@@ -1421,14 +1431,14 @@
         <v>45550</v>
       </c>
       <c r="B33" s="3" t="str">
-        <f t="shared" ref="B33:B35" si="3">TEXT(A33,"aaa")</f>
+        <f t="shared" ref="B33:B38" si="4">TEXT(A33,"aaa")</f>
         <v>日</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E33" s="6">
-        <f>((G33-F33)+(I33-H33)+(K33-J33))*24</f>
+        <f t="shared" si="3"/>
         <v>0.99999999994179234</v>
       </c>
       <c r="F33" s="7">
@@ -1446,14 +1456,14 @@
         <v>45551</v>
       </c>
       <c r="B34" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>月</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E34" s="6">
-        <f>((G34-F34)+(I34-H34)+(K34-J34))*24</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="F34" s="7">
@@ -1477,12 +1487,16 @@
         <v>45552</v>
       </c>
       <c r="B35" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>火</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="E35" s="6">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
       <c r="F35" s="7">
         <v>45552.895833333336</v>
       </c>
@@ -1491,6 +1505,78 @@
       </c>
       <c r="L35" s="2" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="1">
+        <v>45553</v>
+      </c>
+      <c r="B36" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>水</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="6">
+        <f t="shared" si="3"/>
+        <v>2.4999999999417923</v>
+      </c>
+      <c r="F36" s="7">
+        <v>45553.895833333336</v>
+      </c>
+      <c r="G36" s="7">
+        <v>45554</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="1">
+        <v>45554</v>
+      </c>
+      <c r="B37" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>木</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="6">
+        <f t="shared" si="3"/>
+        <v>2.4999999999417923</v>
+      </c>
+      <c r="F37" s="7">
+        <v>45554.895833333336</v>
+      </c>
+      <c r="G37" s="7">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B38" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>金</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="6">
+        <f t="shared" si="3"/>
+        <v>2.0000000000582077</v>
+      </c>
+      <c r="F38" s="7">
+        <v>45555.645833333336</v>
+      </c>
+      <c r="G38" s="7">
+        <v>45555.708333333336</v>
+      </c>
+      <c r="H38" s="7">
+        <v>45555.875</v>
+      </c>
+      <c r="I38" s="7">
+        <v>45555.895833333336</v>
       </c>
     </row>
   </sheetData>

--- a/作業日報.xlsx
+++ b/作業日報.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\jyosetu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F50F0E-B564-4951-9E2C-E86234826CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6C0E2B-7962-4797-A0E1-4507AFE1DEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9960" yWindow="0" windowWidth="16515" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日報" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="31">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -380,6 +380,19 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>カイハツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラズパイを受け渡す準備</t>
+    <rPh sb="5" eb="6">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジュンビ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -728,14 +741,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D22" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D31" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="E4" sqref="E4"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
+      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1"/>
@@ -752,7 +765,7 @@
     <row r="1" spans="1:12">
       <c r="E1" s="6">
         <f>SUM(E3:E999)</f>
-        <v>131.33333333377959</v>
+        <v>137.8333333338378</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1">
@@ -1314,7 +1327,7 @@
         <v>15</v>
       </c>
       <c r="E29" s="6">
-        <f t="shared" ref="E29:E38" si="3">((G29-F29)+(I29-H29)+(K29-J29))*24</f>
+        <f t="shared" ref="E29:E40" si="3">((G29-F29)+(I29-H29)+(K29-J29))*24</f>
         <v>9.000000000174623</v>
       </c>
       <c r="F29" s="7">
@@ -1431,7 +1444,7 @@
         <v>45550</v>
       </c>
       <c r="B33" s="3" t="str">
-        <f t="shared" ref="B33:B38" si="4">TEXT(A33,"aaa")</f>
+        <f t="shared" ref="B33:B39" si="4">TEXT(A33,"aaa")</f>
         <v>日</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -1577,6 +1590,50 @@
       </c>
       <c r="I38" s="7">
         <v>45555.895833333336</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="1">
+        <v>45556</v>
+      </c>
+      <c r="B39" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>土</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="6">
+        <f t="shared" si="3"/>
+        <v>2.0000000000582077</v>
+      </c>
+      <c r="F39" s="7">
+        <v>45556.875</v>
+      </c>
+      <c r="G39" s="7">
+        <v>45556.958333333336</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="1">
+        <v>45556</v>
+      </c>
+      <c r="B40" s="3" t="str">
+        <f t="shared" ref="B40" si="5">TEXT(A40,"aaa")</f>
+        <v>土</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="6">
+        <f t="shared" si="3"/>
+        <v>4.5</v>
+      </c>
+      <c r="F40" s="7">
+        <v>45556.4375</v>
+      </c>
+      <c r="G40" s="7">
+        <v>45556.625</v>
       </c>
     </row>
   </sheetData>

--- a/作業日報.xlsx
+++ b/作業日報.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\jyosetu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6C0E2B-7962-4797-A0E1-4507AFE1DEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B61BBBF-79EB-4E72-881E-93344629DB49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9960" yWindow="0" windowWidth="16515" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日報" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="31">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -384,7 +384,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ラズパイを受け渡す準備</t>
+    <t>ラズパイを受け渡す準備
+サーバの自動起動設定
+ログ関連の出力調整</t>
     <rPh sb="5" eb="6">
       <t>ウ</t>
     </rPh>
@@ -393,6 +395,21 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>ジドウキドウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>チョウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -741,14 +758,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D31" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D25" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="E4" sqref="E4"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
+      <selection pane="bottomRight" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1"/>
@@ -765,7 +782,7 @@
     <row r="1" spans="1:12">
       <c r="E1" s="6">
         <f>SUM(E3:E999)</f>
-        <v>137.8333333338378</v>
+        <v>144.83333333377959</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1">
@@ -1327,7 +1344,7 @@
         <v>15</v>
       </c>
       <c r="E29" s="6">
-        <f t="shared" ref="E29:E40" si="3">((G29-F29)+(I29-H29)+(K29-J29))*24</f>
+        <f t="shared" ref="E29:E41" si="3">((G29-F29)+(I29-H29)+(K29-J29))*24</f>
         <v>9.000000000174623</v>
       </c>
       <c r="F29" s="7">
@@ -1416,6 +1433,9 @@
         <f t="shared" si="2"/>
         <v>土</v>
       </c>
+      <c r="C32" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="D32" s="2" t="s">
         <v>23</v>
       </c>
@@ -1447,6 +1467,9 @@
         <f t="shared" ref="B33:B39" si="4">TEXT(A33,"aaa")</f>
         <v>日</v>
       </c>
+      <c r="C33" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="D33" s="2" t="s">
         <v>23</v>
       </c>
@@ -1472,6 +1495,9 @@
         <f t="shared" si="4"/>
         <v>月</v>
       </c>
+      <c r="C34" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="D34" s="2" t="s">
         <v>23</v>
       </c>
@@ -1614,26 +1640,60 @@
         <v>45556.958333333336</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" ht="56.25">
       <c r="A40" s="1">
-        <v>45556</v>
+        <v>45557</v>
       </c>
       <c r="B40" s="3" t="str">
-        <f t="shared" ref="B40" si="5">TEXT(A40,"aaa")</f>
-        <v>土</v>
+        <f t="shared" ref="B40:B41" si="5">TEXT(A40,"aaa")</f>
+        <v>日</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E40" s="6">
         <f t="shared" si="3"/>
+        <v>6.9999999999417923</v>
+      </c>
+      <c r="F40" s="7">
+        <v>45557.4375</v>
+      </c>
+      <c r="G40" s="7">
+        <v>45557.625</v>
+      </c>
+      <c r="H40" s="7">
+        <v>45557.875</v>
+      </c>
+      <c r="I40" s="7">
+        <v>45557.979166666664</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="56.25">
+      <c r="A41" s="1">
+        <v>45558</v>
+      </c>
+      <c r="B41" s="3" t="str">
+        <f t="shared" ref="B41" si="6">TEXT(A41,"aaa")</f>
+        <v>月</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="6">
+        <f>((G41-F41)+(I42-H42)+(K42-J42))*24</f>
         <v>4.5</v>
       </c>
-      <c r="F40" s="7">
-        <v>45556.4375</v>
-      </c>
-      <c r="G40" s="7">
-        <v>45556.625</v>
+      <c r="F41" s="7">
+        <v>45558.4375</v>
+      </c>
+      <c r="G41" s="7">
+        <v>45558.625</v>
       </c>
     </row>
   </sheetData>

--- a/作業日報.xlsx
+++ b/作業日報.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\jyosetu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B61BBBF-79EB-4E72-881E-93344629DB49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621CAAF9-17F3-4346-B4CC-C7EAF18B072D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="735" windowWidth="20430" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日報" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="32">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -413,14 +413,29 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>USBデバイスの一覧を取得する対応</t>
+    <rPh sb="8" eb="10">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+    <numFmt numFmtId="182" formatCode="#,##0.0\ &quot;人日&quot;"/>
+    <numFmt numFmtId="183" formatCode="0.0_ &quot;時間&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -458,7 +473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -478,6 +493,8 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -758,14 +775,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D25" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="E4" sqref="E4"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A41" sqref="A41"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1"/>
@@ -773,16 +790,20 @@
     <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="3" width="6.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="6"/>
+    <col min="5" max="5" width="10.25" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="11" width="19.75" style="7" customWidth="1" outlineLevel="1"/>
     <col min="12" max="12" width="48.5" customWidth="1"/>
     <col min="13" max="13" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="E1" s="6">
+      <c r="E1" s="10">
         <f>SUM(E3:E999)</f>
-        <v>144.83333333377959</v>
+        <v>148.3333333338378</v>
+      </c>
+      <c r="F1" s="9">
+        <f>E1/8</f>
+        <v>18.541666666729725</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1">
@@ -1344,7 +1365,7 @@
         <v>15</v>
       </c>
       <c r="E29" s="6">
-        <f t="shared" ref="E29:E41" si="3">((G29-F29)+(I29-H29)+(K29-J29))*24</f>
+        <f t="shared" ref="E29:E40" si="3">((G29-F29)+(I29-H29)+(K29-J29))*24</f>
         <v>9.000000000174623</v>
       </c>
       <c r="F29" s="7">
@@ -1645,7 +1666,7 @@
         <v>45557</v>
       </c>
       <c r="B40" s="3" t="str">
-        <f t="shared" ref="B40:B41" si="5">TEXT(A40,"aaa")</f>
+        <f t="shared" ref="B40" si="5">TEXT(A40,"aaa")</f>
         <v>日</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -1676,7 +1697,7 @@
         <v>45558</v>
       </c>
       <c r="B41" s="3" t="str">
-        <f t="shared" ref="B41" si="6">TEXT(A41,"aaa")</f>
+        <f t="shared" ref="B41:B42" si="6">TEXT(A41,"aaa")</f>
         <v>月</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -1694,6 +1715,28 @@
       </c>
       <c r="G41" s="7">
         <v>45558.625</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="37.5">
+      <c r="A42" s="1">
+        <v>45559</v>
+      </c>
+      <c r="B42" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>火</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" s="6">
+        <f>((G42-F42)+(I43-H43)+(K43-J43))*24</f>
+        <v>3.5000000000582077</v>
+      </c>
+      <c r="F42" s="7">
+        <v>45559.854166666664</v>
+      </c>
+      <c r="G42" s="7">
+        <v>45560</v>
       </c>
     </row>
   </sheetData>

--- a/作業日報.xlsx
+++ b/作業日報.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\jyosetu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621CAAF9-17F3-4346-B4CC-C7EAF18B072D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A251931-D228-40D9-A062-1855C5418626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="735" windowWidth="20430" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="33">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -423,6 +423,22 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動クラッチダウンのon/off切り替えを追加</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -434,8 +450,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
-    <numFmt numFmtId="182" formatCode="#,##0.0\ &quot;人日&quot;"/>
-    <numFmt numFmtId="183" formatCode="0.0_ &quot;時間&quot;"/>
+    <numFmt numFmtId="178" formatCode="#,##0.0\ &quot;人日&quot;"/>
+    <numFmt numFmtId="179" formatCode="0.0_ &quot;時間&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -493,8 +509,8 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -775,14 +791,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D31" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="E4" sqref="E4"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1"/>
@@ -799,11 +815,11 @@
     <row r="1" spans="1:12">
       <c r="E1" s="10">
         <f>SUM(E3:E999)</f>
-        <v>148.3333333338378</v>
+        <v>150.83333333377959</v>
       </c>
       <c r="F1" s="9">
         <f>E1/8</f>
-        <v>18.541666666729725</v>
+        <v>18.854166666722449</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1">
@@ -1203,7 +1219,7 @@
         <v>15</v>
       </c>
       <c r="E23" s="6">
-        <f>(G23-F23)*24</f>
+        <f t="shared" ref="E23:E43" si="1">((G23-F23)+(I23-H23)+(K23-J23))*24</f>
         <v>2.8333333333139308</v>
       </c>
       <c r="F23" s="7">
@@ -1228,7 +1244,7 @@
         <v>11</v>
       </c>
       <c r="E24" s="6">
-        <f>(G24-F24)*24</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="F24" s="7">
@@ -1246,7 +1262,7 @@
         <v>45539</v>
       </c>
       <c r="B25" s="3" t="str">
-        <f t="shared" ref="B25:B26" si="1">TEXT(A25,"aaa")</f>
+        <f t="shared" ref="B25:B26" si="2">TEXT(A25,"aaa")</f>
         <v>水</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -1256,7 +1272,7 @@
         <v>11</v>
       </c>
       <c r="E25" s="6">
-        <f>((G25-F25)+(I25-H25))*24</f>
+        <f t="shared" si="1"/>
         <v>5.0000000000582077</v>
       </c>
       <c r="F25" s="7">
@@ -1280,14 +1296,14 @@
         <v>45540</v>
       </c>
       <c r="B26" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>木</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="6">
-        <f>((G26-F26)+(I26-H26))*24</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="F26" s="7">
@@ -1302,14 +1318,14 @@
         <v>45541</v>
       </c>
       <c r="B27" s="3" t="str">
-        <f t="shared" ref="B27:B32" si="2">TEXT(A27,"aaa")</f>
+        <f t="shared" ref="B27:B32" si="3">TEXT(A27,"aaa")</f>
         <v>金</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="6">
-        <f>((G27-F27)+(I27-H27))*24</f>
+        <f t="shared" si="1"/>
         <v>3.5000000000582077</v>
       </c>
       <c r="F27" s="7">
@@ -1324,7 +1340,7 @@
         <v>45542</v>
       </c>
       <c r="B28" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>土</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -1334,7 +1350,7 @@
         <v>15</v>
       </c>
       <c r="E28" s="6">
-        <f>((G28-F28)+(I28-H28))*24</f>
+        <f t="shared" si="1"/>
         <v>5.0000000000582077</v>
       </c>
       <c r="F28" s="7">
@@ -1355,7 +1371,7 @@
         <v>45543</v>
       </c>
       <c r="B29" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>日</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -1365,7 +1381,7 @@
         <v>15</v>
       </c>
       <c r="E29" s="6">
-        <f t="shared" ref="E29:E40" si="3">((G29-F29)+(I29-H29)+(K29-J29))*24</f>
+        <f t="shared" ref="E29:E43" si="4">((G29-F29)+(I29-H29)+(K29-J29))*24</f>
         <v>9.000000000174623</v>
       </c>
       <c r="F29" s="7">
@@ -1395,14 +1411,14 @@
         <v>45546</v>
       </c>
       <c r="B30" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>水</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E30" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="F30" s="7">
@@ -1420,14 +1436,14 @@
         <v>45548</v>
       </c>
       <c r="B31" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>金</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E31" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4.500000000174623</v>
       </c>
       <c r="F31" s="7">
@@ -1451,7 +1467,7 @@
         <v>45549</v>
       </c>
       <c r="B32" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>土</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -1461,7 +1477,7 @@
         <v>23</v>
       </c>
       <c r="E32" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5.0000000000582077</v>
       </c>
       <c r="F32" s="7">
@@ -1485,7 +1501,7 @@
         <v>45550</v>
       </c>
       <c r="B33" s="3" t="str">
-        <f t="shared" ref="B33:B39" si="4">TEXT(A33,"aaa")</f>
+        <f t="shared" ref="B33:B39" si="5">TEXT(A33,"aaa")</f>
         <v>日</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -1495,7 +1511,7 @@
         <v>23</v>
       </c>
       <c r="E33" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.99999999994179234</v>
       </c>
       <c r="F33" s="7">
@@ -1513,7 +1529,7 @@
         <v>45551</v>
       </c>
       <c r="B34" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>月</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -1523,7 +1539,7 @@
         <v>23</v>
       </c>
       <c r="E34" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="F34" s="7">
@@ -1547,14 +1563,14 @@
         <v>45552</v>
       </c>
       <c r="B35" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>火</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E35" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="F35" s="7">
@@ -1572,14 +1588,14 @@
         <v>45553</v>
       </c>
       <c r="B36" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>水</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E36" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.4999999999417923</v>
       </c>
       <c r="F36" s="7">
@@ -1594,14 +1610,14 @@
         <v>45554</v>
       </c>
       <c r="B37" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>木</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E37" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.4999999999417923</v>
       </c>
       <c r="F37" s="7">
@@ -1616,14 +1632,14 @@
         <v>45555</v>
       </c>
       <c r="B38" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>金</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E38" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.0000000000582077</v>
       </c>
       <c r="F38" s="7">
@@ -1644,14 +1660,14 @@
         <v>45556</v>
       </c>
       <c r="B39" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>土</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E39" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.0000000000582077</v>
       </c>
       <c r="F39" s="7">
@@ -1666,7 +1682,7 @@
         <v>45557</v>
       </c>
       <c r="B40" s="3" t="str">
-        <f t="shared" ref="B40" si="5">TEXT(A40,"aaa")</f>
+        <f t="shared" ref="B40" si="6">TEXT(A40,"aaa")</f>
         <v>日</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -1676,7 +1692,7 @@
         <v>30</v>
       </c>
       <c r="E40" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6.9999999999417923</v>
       </c>
       <c r="F40" s="7">
@@ -1697,7 +1713,7 @@
         <v>45558</v>
       </c>
       <c r="B41" s="3" t="str">
-        <f t="shared" ref="B41:B42" si="6">TEXT(A41,"aaa")</f>
+        <f t="shared" ref="B41:B43" si="7">TEXT(A41,"aaa")</f>
         <v>月</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -1707,7 +1723,7 @@
         <v>30</v>
       </c>
       <c r="E41" s="6">
-        <f>((G41-F41)+(I42-H42)+(K42-J42))*24</f>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="F41" s="7">
@@ -1722,14 +1738,14 @@
         <v>45559</v>
       </c>
       <c r="B42" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>火</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E42" s="6">
-        <f>((G42-F42)+(I43-H43)+(K43-J43))*24</f>
+        <f t="shared" si="1"/>
         <v>3.5000000000582077</v>
       </c>
       <c r="F42" s="7">
@@ -1737,6 +1753,34 @@
       </c>
       <c r="G42" s="7">
         <v>45560</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="37.5">
+      <c r="A43" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B43" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>金</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="6">
+        <f t="shared" si="1"/>
+        <v>2.4999999999417923</v>
+      </c>
+      <c r="F43" s="7">
+        <v>45562.34375</v>
+      </c>
+      <c r="G43" s="7">
+        <v>45562.385416666664</v>
+      </c>
+      <c r="H43" s="7">
+        <v>45562.875</v>
+      </c>
+      <c r="I43" s="7">
+        <v>45562.9375</v>
       </c>
     </row>
   </sheetData>

--- a/作業日報.xlsx
+++ b/作業日報.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\jyosetu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ikura\テクノオアシス\source\jyosetu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A251931-D228-40D9-A062-1855C5418626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017F34B1-06AB-4799-B557-20E02D229556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="735" windowWidth="20430" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日報" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="34">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -440,6 +451,10 @@
     <rPh sb="21" eb="23">
       <t>ツイカ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラズパイ5のセットアップ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -791,14 +806,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D31" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D35" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="E4" sqref="E4"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E43" sqref="E43"/>
+      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1"/>
@@ -815,11 +830,11 @@
     <row r="1" spans="1:12">
       <c r="E1" s="10">
         <f>SUM(E3:E999)</f>
-        <v>150.83333333377959</v>
+        <v>155.83333333366318</v>
       </c>
       <c r="F1" s="9">
         <f>E1/8</f>
-        <v>18.854166666722449</v>
+        <v>19.479166666707897</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1">
@@ -1219,7 +1234,7 @@
         <v>15</v>
       </c>
       <c r="E23" s="6">
-        <f t="shared" ref="E23:E43" si="1">((G23-F23)+(I23-H23)+(K23-J23))*24</f>
+        <f t="shared" ref="E23:E44" si="1">((G23-F23)+(I23-H23)+(K23-J23))*24</f>
         <v>2.8333333333139308</v>
       </c>
       <c r="F23" s="7">
@@ -1381,7 +1396,7 @@
         <v>15</v>
       </c>
       <c r="E29" s="6">
-        <f t="shared" ref="E29:E43" si="4">((G29-F29)+(I29-H29)+(K29-J29))*24</f>
+        <f t="shared" ref="E29" si="4">((G29-F29)+(I29-H29)+(K29-J29))*24</f>
         <v>9.000000000174623</v>
       </c>
       <c r="F29" s="7">
@@ -1713,7 +1728,7 @@
         <v>45558</v>
       </c>
       <c r="B41" s="3" t="str">
-        <f t="shared" ref="B41:B43" si="7">TEXT(A41,"aaa")</f>
+        <f t="shared" ref="B41:B44" si="7">TEXT(A41,"aaa")</f>
         <v>月</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -1781,6 +1796,50 @@
       </c>
       <c r="I43" s="7">
         <v>45562.9375</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="1">
+        <v>45567</v>
+      </c>
+      <c r="B44" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>水</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" s="6">
+        <f t="shared" si="1"/>
+        <v>2.4999999999417923</v>
+      </c>
+      <c r="F44" s="7">
+        <v>45567.875</v>
+      </c>
+      <c r="G44" s="7">
+        <v>45567.979166666664</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="1">
+        <v>45567</v>
+      </c>
+      <c r="B45" s="3" t="str">
+        <f t="shared" ref="B45" si="8">TEXT(A45,"aaa")</f>
+        <v>水</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" s="6">
+        <f t="shared" ref="E45" si="9">((G45-F45)+(I45-H45)+(K45-J45))*24</f>
+        <v>2.4999999999417923</v>
+      </c>
+      <c r="F45" s="7">
+        <v>45567.875</v>
+      </c>
+      <c r="G45" s="7">
+        <v>45567.979166666664</v>
       </c>
     </row>
   </sheetData>

--- a/作業日報.xlsx
+++ b/作業日報.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ikura\テクノオアシス\source\jyosetu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\jyosetu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017F34B1-06AB-4799-B557-20E02D229556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766B7EA8-1657-47B1-BFEB-C63B0973F879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="735" windowWidth="20430" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日報" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="36">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -455,6 +444,26 @@
   </si>
   <si>
     <t>ラズパイ5のセットアップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラ側をラズパイ5に合わせて修正</t>
+    <rPh sb="3" eb="4">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休</t>
+    <rPh sb="0" eb="1">
+      <t>ヤス</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -806,14 +815,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D35" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="E4" sqref="E4"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
+      <selection pane="bottomRight" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1"/>
@@ -830,11 +839,11 @@
     <row r="1" spans="1:12">
       <c r="E1" s="10">
         <f>SUM(E3:E999)</f>
-        <v>155.83333333366318</v>
+        <v>170.83333333366318</v>
       </c>
       <c r="F1" s="9">
         <f>E1/8</f>
-        <v>19.479166666707897</v>
+        <v>21.354166666707897</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1">
@@ -1825,7 +1834,7 @@
         <v>45567</v>
       </c>
       <c r="B45" s="3" t="str">
-        <f t="shared" ref="B45" si="8">TEXT(A45,"aaa")</f>
+        <f t="shared" ref="B45:B46" si="8">TEXT(A45,"aaa")</f>
         <v>水</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -1840,6 +1849,84 @@
       </c>
       <c r="G45" s="7">
         <v>45567.979166666664</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="1">
+        <v>45569</v>
+      </c>
+      <c r="B46" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>金</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="6">
+        <f t="shared" ref="E46" si="10">((G46-F46)+(I46-H46)+(K46-J46))*24</f>
+        <v>3.5000000000582077</v>
+      </c>
+      <c r="F46" s="7">
+        <v>45569.875</v>
+      </c>
+      <c r="G46" s="7">
+        <v>45570.020833333336</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="37.5">
+      <c r="A47" s="1">
+        <v>45570</v>
+      </c>
+      <c r="B47" s="3" t="str">
+        <f t="shared" ref="B47" si="11">TEXT(A47,"aaa")</f>
+        <v>土</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" s="6">
+        <f t="shared" ref="E47" si="12">((G47-F47)+(I47-H47)+(K47-J47))*24</f>
+        <v>6</v>
+      </c>
+      <c r="F47" s="7">
+        <v>45570.375</v>
+      </c>
+      <c r="G47" s="7">
+        <v>45570.625</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="37.5">
+      <c r="A48" s="1">
+        <v>45571</v>
+      </c>
+      <c r="B48" s="3" t="str">
+        <f t="shared" ref="B48" si="13">TEXT(A48,"aaa")</f>
+        <v>日</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" s="6">
+        <f t="shared" ref="E48" si="14">((G48-F48)+(I48-H48)+(K48-J48))*24</f>
+        <v>5.4999999999417923</v>
+      </c>
+      <c r="F48" s="7">
+        <v>45571.208333333336</v>
+      </c>
+      <c r="G48" s="7">
+        <v>45571.270833333336</v>
+      </c>
+      <c r="H48" s="7">
+        <v>45571.4375</v>
+      </c>
+      <c r="I48" s="7">
+        <v>45571.604166666664</v>
       </c>
     </row>
   </sheetData>

--- a/作業日報.xlsx
+++ b/作業日報.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\jyosetu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766B7EA8-1657-47B1-BFEB-C63B0973F879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886C36DE-3B51-4C4A-8A95-A1B2DA0EC8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="735" windowWidth="20430" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="37">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -463,6 +463,19 @@
     <t>休</t>
     <rPh sb="0" eb="1">
       <t>ヤス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイクロ波センサー部分を作成</t>
+    <rPh sb="4" eb="5">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -822,7 +835,7 @@
       <selection activeCell="E4" sqref="E4"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C48" sqref="C48"/>
+      <selection pane="bottomRight" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1"/>
@@ -1851,7 +1864,7 @@
         <v>45567.979166666664</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" ht="37.5">
       <c r="A46" s="1">
         <v>45569</v>
       </c>
@@ -1860,7 +1873,7 @@
         <v>金</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E46" s="6">
         <f t="shared" ref="E46" si="10">((G46-F46)+(I46-H46)+(K46-J46))*24</f>
@@ -1885,7 +1898,7 @@
         <v>35</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E47" s="6">
         <f t="shared" ref="E47" si="12">((G47-F47)+(I47-H47)+(K47-J47))*24</f>
